--- a/Data Files/TestData/NexCare/Master Data/Pengguna/Pengguna - edit.xlsx
+++ b/Data Files/TestData/NexCare/Master Data/Pengguna/Pengguna - edit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Pengguna-edit" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>TD</t>
   </si>
@@ -67,6 +67,9 @@
     <t>dataGroup</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>TDG220601</t>
   </si>
   <si>
@@ -79,7 +82,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Katalon Manager</t>
+    <t>Khairina Wardina</t>
   </si>
   <si>
     <t>N</t>
@@ -115,6 +118,9 @@
     <t>nexsoft</t>
   </si>
   <si>
+    <t>Aktif</t>
+  </si>
+  <si>
     <t>TDG220602</t>
   </si>
   <si>
@@ -187,10 +193,16 @@
     <t>3671072606990995</t>
   </si>
   <si>
+    <t>principals123</t>
+  </si>
+  <si>
     <t>principal</t>
   </si>
   <si>
     <t>groupprincipal</t>
+  </si>
+  <si>
+    <t>Tidak Aktif</t>
   </si>
   <si>
     <t>TDG220606</t>
@@ -213,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -233,57 +245,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,29 +300,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -326,50 +376,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -386,85 +398,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,97 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +589,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,11 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,47 +673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,148 +694,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,52 +855,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1159,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1184,9 +1196,10 @@
     <col min="15" max="15" width="13.8571428571429" customWidth="1"/>
     <col min="16" max="16" width="15.1428571428571" customWidth="1"/>
     <col min="17" max="17" width="16.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="11.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,266 +1251,287 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
